--- a/biology/Médecine/Harriet_Wolfe/Harriet_Wolfe.xlsx
+++ b/biology/Médecine/Harriet_Wolfe/Harriet_Wolfe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harriet L. Wolfe est une psychiatre et universitaire américaine. Elle est professeure associée clinicienne en psychiatrie et sciences du comportement de l'université de Californie à San Francisco. Elle est présidente de l'American Psychoanalytic Association de 2016 à 2018 et présidente de l'Association psychanalytique internationale depuis 2021.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harriet Wolfe fait des études d'allemand à Smith College de 1961 à 1965, puis elle obtient un master de langue et littérature germaniques à l'université Columbia en 1967. Elle fait une année préparatoire aux études de médecine à l'université de Berkeley, puis s'inscrit à l'école de médecine de l'université Case Western Reserve où elle obtient son diplôme de médecin en 1975. Elle fait son internat de psychiatrie à l'école de médecine de Yale de 1976 à 1979.
-Elle est maître de conférences à la faculté de médecine de Yale de 1979 à 1985, puis professeure associée à l'université de Californie à San Francisco. Elle se forme comme psychanalyste à l'Institut de psychanalyse de San Francisco, dont elle est membre depuis 1994 et où elle est analyste superviseuse[1].
-Elle est présidente de l'American Psychoanalytic Association de 2016 à 2018, et elle est élue présidente de l'Association psychanalytique internationale en 2021[2].
+Elle est maître de conférences à la faculté de médecine de Yale de 1979 à 1985, puis professeure associée à l'université de Californie à San Francisco. Elle se forme comme psychanalyste à l'Institut de psychanalyse de San Francisco, dont elle est membre depuis 1994 et où elle est analyste superviseuse.
+Elle est présidente de l'American Psychoanalytic Association de 2016 à 2018, et elle est élue présidente de l'Association psychanalytique internationale en 2021.
 </t>
         </is>
       </c>
